--- a/Daily Activity/2024/DEC/24-12-24/CENTRA_UAT Release CheckList.xlsx
+++ b/Daily Activity/2024/DEC/24-12-24/CENTRA_UAT Release CheckList.xlsx
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -146,11 +146,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,7 +199,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,7 +226,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.08"/>
@@ -290,10 +285,10 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.62"/>
@@ -532,7 +527,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.23"/>
@@ -593,7 +588,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.23"/>
@@ -654,7 +649,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.23"/>
@@ -715,7 +710,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.23"/>
@@ -776,7 +771,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.23"/>
@@ -837,7 +832,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.23"/>
@@ -898,7 +893,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.23"/>
